--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3997.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3997.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.363002594429244</v>
+        <v>1.592835187911987</v>
       </c>
       <c r="B1">
-        <v>2.52478111227177</v>
+        <v>3.39194917678833</v>
       </c>
       <c r="C1">
-        <v>3.376472527892341</v>
+        <v>5.57266902923584</v>
       </c>
       <c r="D1">
-        <v>3.946944733781718</v>
+        <v>6.088551044464111</v>
       </c>
       <c r="E1">
-        <v>1.716853088070844</v>
+        <v>1.099314212799072</v>
       </c>
     </row>
   </sheetData>
